--- a/需求响应/data/Taxi_example.xlsx
+++ b/需求响应/data/Taxi_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640FE9C2-82E9-4AD7-B035-2F1935DD806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021A0110-F806-4311-9A3F-EBBD5B5C8F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="2535" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -523,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>1.1000000000000001</v>
@@ -535,7 +535,7 @@
         <v>0.1</v>
       </c>
       <c r="P2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q2">
         <v>0.15</v>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -576,10 +576,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>1.1000000000000001</v>
@@ -588,7 +588,7 @@
         <v>0.1</v>
       </c>
       <c r="P3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q3">
         <v>0.15</v>

--- a/需求响应/data/Taxi_example.xlsx
+++ b/需求响应/data/Taxi_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021A0110-F806-4311-9A3F-EBBD5B5C8F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D0021-D734-4285-A19E-9E6AE6642C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="2535" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOC_baseline</t>
+    <t>P_charge_lambda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,14 +425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="19" width="14" customWidth="1"/>
+    <col min="12" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -476,16 +476,16 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -508,19 +508,19 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>1</v>
       </c>
       <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.1</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.4</v>
-      </c>
-      <c r="Q2">
-        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -561,19 +561,19 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.4</v>
-      </c>
-      <c r="Q3">
-        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/需求响应/data/Taxi_example.xlsx
+++ b/需求响应/data/Taxi_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D0021-D734-4285-A19E-9E6AE6642C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B997A5B-F76C-4407-81C7-96D7AD5E7ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="10910" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>P_charge_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC_start_variance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC_end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,19 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="20" width="14" customWidth="1"/>
+    <col min="1" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,31 +472,37 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -511,37 +525,43 @@
         <v>28</v>
       </c>
       <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
+        <v>0.05</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>72</v>
       </c>
-      <c r="K2">
-        <v>30</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="P2">
         <v>0.9</v>
       </c>
-      <c r="O2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P2">
-        <v>0.1</v>
-      </c>
       <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>0.3</v>
+      </c>
+      <c r="S2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -555,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -564,33 +584,39 @@
         <v>28</v>
       </c>
       <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>0.05</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>72</v>
       </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+      <c r="P3">
         <v>0.9</v>
       </c>
-      <c r="O3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P3">
-        <v>0.1</v>
-      </c>
       <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0.3</v>
+      </c>
+      <c r="S3">
         <v>0.4</v>
       </c>
     </row>

--- a/需求响应/data/Taxi_example.xlsx
+++ b/需求响应/data/Taxi_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B997A5B-F76C-4407-81C7-96D7AD5E7ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23B1AD7-8E54-4E79-B9BD-2CAE637BEEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="10910" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -513,10 +513,10 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -552,7 +552,7 @@
         <v>0.9</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2">
         <v>0.3</v>
@@ -572,10 +572,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -611,7 +611,7 @@
         <v>0.9</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3">
         <v>0.3</v>

--- a/需求响应/data/Taxi_example.xlsx
+++ b/需求响应/data/Taxi_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23B1AD7-8E54-4E79-B9BD-2CAE637BEEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD8F15-7DD7-4150-9493-B6F98BEF11D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>SOC_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_discharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_discharge_variance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -443,7 +451,7 @@
     <col min="14" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,19 +509,25 @@
       <c r="S1" t="s">
         <v>15</v>
       </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>61.9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0.3</v>
@@ -543,36 +557,42 @@
         <v>10</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>51.6</v>
       </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0.9</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R2">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>0.4</v>
       </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>47.5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="E3">
         <v>0.3</v>
@@ -602,22 +622,28 @@
         <v>10</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0.9</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>0.4</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/需求响应/data/Taxi_example.xlsx
+++ b/需求响应/data/Taxi_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD8F15-7DD7-4150-9493-B6F98BEF11D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861F278-4C91-4357-8B2C-0747E7901D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -536,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0.6</v>
@@ -551,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="L2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>51.6</v>
@@ -566,10 +566,10 @@
         <v>0.9</v>
       </c>
       <c r="Q2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <v>0.4</v>
@@ -601,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0.6</v>
@@ -616,10 +616,10 @@
         <v>8</v>
       </c>
       <c r="L3">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>95</v>
@@ -631,10 +631,10 @@
         <v>0.9</v>
       </c>
       <c r="Q3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3">
         <v>0.4</v>
